--- a/v1/nfc-pn532_top_cpl-jlcpcb.xlsx
+++ b/v1/nfc-pn532_top_cpl-jlcpcb.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\git\rpi4-terminal\boards\nfc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\git\PN532-Breakout-Board\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67018A6-AD31-4639-A697-073CAE5C946A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09FEC1-34ED-4981-AF11-331212455240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="3015" windowWidth="24675" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="3900" windowWidth="28065" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nfc-pn532-v2_top_cpl (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'nfc-pn532-v2_top_cpl (2)'!$A$1:$E$51</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'nfc-pn532-v2_top_cpl (2)'!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
   <si>
     <t>Column1</t>
   </si>
@@ -439,6 +439,15 @@
   </si>
   <si>
     <t>15.24</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>91.60</t>
+  </si>
+  <si>
+    <t>35.55</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1023,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="nfc_pn532_v2_top_cpl" displayName="nfc_pn532_v2_top_cpl" ref="A1:E51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="nfc_pn532_v2_top_cpl" displayName="nfc_pn532_v2_top_cpl" ref="A1:E52" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="3"/>
@@ -1324,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,30 +1992,30 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
+      <c r="E39" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -2017,47 +2026,47 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -2068,13 +2077,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -2085,13 +2094,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -2102,13 +2111,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -2119,13 +2128,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -2136,13 +2145,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -2153,52 +2162,69 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="1">
-        <v>270</v>
+      <c r="E49" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>33</v>
+      <c r="E50" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>45</v>
       </c>
     </row>
